--- a/Code/Results/Cases/Case_0_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011783114606491</v>
+        <v>1.057161987598992</v>
       </c>
       <c r="D2">
-        <v>1.018541181284544</v>
+        <v>1.056392523886304</v>
       </c>
       <c r="E2">
-        <v>1.024371888599898</v>
+        <v>1.062507905838677</v>
       </c>
       <c r="F2">
-        <v>1.031055316297284</v>
+        <v>1.071210844270271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047548944489465</v>
+        <v>1.041693537971972</v>
       </c>
       <c r="J2">
-        <v>1.033617017170443</v>
+        <v>1.062159849014679</v>
       </c>
       <c r="K2">
-        <v>1.029748112728803</v>
+        <v>1.059130360032595</v>
       </c>
       <c r="L2">
-        <v>1.035501813360319</v>
+        <v>1.065229063986186</v>
       </c>
       <c r="M2">
-        <v>1.042098312854074</v>
+        <v>1.073908622668651</v>
       </c>
       <c r="N2">
-        <v>1.035084871892376</v>
+        <v>1.063668237831717</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018894276364148</v>
+        <v>1.058598364849935</v>
       </c>
       <c r="D3">
-        <v>1.024648736338163</v>
+        <v>1.057669166988266</v>
       </c>
       <c r="E3">
-        <v>1.030467135913703</v>
+        <v>1.06378723294479</v>
       </c>
       <c r="F3">
-        <v>1.037535284521326</v>
+        <v>1.072577604668824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049428453175604</v>
+        <v>1.041986010619345</v>
       </c>
       <c r="J3">
-        <v>1.038882789227098</v>
+        <v>1.063246244069036</v>
       </c>
       <c r="K3">
-        <v>1.034975654390565</v>
+        <v>1.060219454692441</v>
       </c>
       <c r="L3">
-        <v>1.040724478073472</v>
+        <v>1.066322053157196</v>
       </c>
       <c r="M3">
-        <v>1.047709405164662</v>
+        <v>1.075090533866597</v>
       </c>
       <c r="N3">
-        <v>1.040358121949322</v>
+        <v>1.064756175691663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023365335530498</v>
+        <v>1.059526756863014</v>
       </c>
       <c r="D4">
-        <v>1.028494010068961</v>
+        <v>1.058494493375757</v>
       </c>
       <c r="E4">
-        <v>1.034305624224535</v>
+        <v>1.064614368254703</v>
       </c>
       <c r="F4">
-        <v>1.041616619579466</v>
+        <v>1.073461374708506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050597185052103</v>
+        <v>1.042173378908237</v>
       </c>
       <c r="J4">
-        <v>1.042189666712196</v>
+        <v>1.063947731201102</v>
       </c>
       <c r="K4">
-        <v>1.038260283048666</v>
+        <v>1.060922871893605</v>
       </c>
       <c r="L4">
-        <v>1.04400691691918</v>
+        <v>1.067028060664277</v>
       </c>
       <c r="M4">
-        <v>1.051237431806358</v>
+        <v>1.075854154256516</v>
       </c>
       <c r="N4">
-        <v>1.043669695579753</v>
+        <v>1.065458659015918</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025215418418071</v>
+        <v>1.059916809505704</v>
       </c>
       <c r="D5">
-        <v>1.030086323895175</v>
+        <v>1.058841286002138</v>
       </c>
       <c r="E5">
-        <v>1.035895353076401</v>
+        <v>1.064961938567528</v>
       </c>
       <c r="F5">
-        <v>1.04330706522391</v>
+        <v>1.073832768824097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051077620066208</v>
+        <v>1.042251699454659</v>
       </c>
       <c r="J5">
-        <v>1.043557019426955</v>
+        <v>1.064242285330271</v>
       </c>
       <c r="K5">
-        <v>1.039618855492067</v>
+        <v>1.061218281197161</v>
       </c>
       <c r="L5">
-        <v>1.045364789295376</v>
+        <v>1.067324575712942</v>
       </c>
       <c r="M5">
-        <v>1.05269724695023</v>
+        <v>1.076174907801562</v>
       </c>
       <c r="N5">
-        <v>1.045038990092205</v>
+        <v>1.065753631445736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02552436827728</v>
+        <v>1.059982286953653</v>
       </c>
       <c r="D6">
-        <v>1.030352295224924</v>
+        <v>1.058899503895692</v>
       </c>
       <c r="E6">
-        <v>1.036160905673985</v>
+        <v>1.065020288045626</v>
       </c>
       <c r="F6">
-        <v>1.043589450215974</v>
+        <v>1.073895119286382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051157660658392</v>
+        <v>1.042264823520805</v>
       </c>
       <c r="J6">
-        <v>1.043785296262493</v>
+        <v>1.064291721794112</v>
       </c>
       <c r="K6">
-        <v>1.039845691066887</v>
+        <v>1.061267863812665</v>
       </c>
       <c r="L6">
-        <v>1.04559151996545</v>
+        <v>1.067374344970523</v>
       </c>
       <c r="M6">
-        <v>1.05294101995076</v>
+        <v>1.07622874787398</v>
       </c>
       <c r="N6">
-        <v>1.045267591107033</v>
+        <v>1.065803138115027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023390170451794</v>
+        <v>1.059531969714751</v>
       </c>
       <c r="D7">
-        <v>1.028515380229312</v>
+        <v>1.05849912791653</v>
       </c>
       <c r="E7">
-        <v>1.034326958810956</v>
+        <v>1.064619013119399</v>
       </c>
       <c r="F7">
-        <v>1.04163930525047</v>
+        <v>1.073466337850416</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050603646899499</v>
+        <v>1.042174427194255</v>
       </c>
       <c r="J7">
-        <v>1.042208025665976</v>
+        <v>1.063951668422277</v>
       </c>
       <c r="K7">
-        <v>1.03827852245657</v>
+        <v>1.060926820369779</v>
       </c>
       <c r="L7">
-        <v>1.044025146119617</v>
+        <v>1.067032023849595</v>
       </c>
       <c r="M7">
-        <v>1.05125702819403</v>
+        <v>1.075858441246632</v>
       </c>
       <c r="N7">
-        <v>1.043688080605354</v>
+        <v>1.065462601828398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01421438990203</v>
+        <v>1.057647636784341</v>
       </c>
       <c r="D8">
-        <v>1.020628177658754</v>
+        <v>1.05682412865642</v>
       </c>
       <c r="E8">
-        <v>1.026454472303627</v>
+        <v>1.06294040269195</v>
       </c>
       <c r="F8">
-        <v>1.033269231831685</v>
+        <v>1.07167287747068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048194241526515</v>
+        <v>1.041792770715594</v>
       </c>
       <c r="J8">
-        <v>1.035418147051537</v>
+        <v>1.062527310811198</v>
       </c>
       <c r="K8">
-        <v>1.031535792850297</v>
+        <v>1.059498696173913</v>
       </c>
       <c r="L8">
-        <v>1.037287638515332</v>
+        <v>1.065598701710992</v>
       </c>
       <c r="M8">
-        <v>1.044016646297745</v>
+        <v>1.074308296746975</v>
       </c>
       <c r="N8">
-        <v>1.036888559584471</v>
+        <v>1.064036221466135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9969654203881214</v>
+        <v>1.054318981818133</v>
       </c>
       <c r="D9">
-        <v>1.005847810470628</v>
+        <v>1.053866652656911</v>
       </c>
       <c r="E9">
-        <v>1.011709797338828</v>
+        <v>1.059977119287495</v>
       </c>
       <c r="F9">
-        <v>1.017596988471065</v>
+        <v>1.068507656023554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043562694130614</v>
+        <v>1.041105780062409</v>
       </c>
       <c r="J9">
-        <v>1.022625794457704</v>
+        <v>1.060005871986236</v>
       </c>
       <c r="K9">
-        <v>1.018846718207485</v>
+        <v>1.056972027866646</v>
       </c>
       <c r="L9">
-        <v>1.024615705729226</v>
+        <v>1.063063414539128</v>
       </c>
       <c r="M9">
-        <v>1.030410875552731</v>
+        <v>1.071567712911009</v>
       </c>
       <c r="N9">
-        <v>1.024078040382653</v>
+        <v>1.061511201908829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9846118848659845</v>
+        <v>1.052093995687927</v>
       </c>
       <c r="D10">
-        <v>0.9953001360463409</v>
+        <v>1.051890755955904</v>
       </c>
       <c r="E10">
-        <v>1.00119365833412</v>
+        <v>1.057997728979847</v>
       </c>
       <c r="F10">
-        <v>1.006421967647111</v>
+        <v>1.066393918381038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0401803356179</v>
+        <v>1.040637981923954</v>
       </c>
       <c r="J10">
-        <v>1.013449622525387</v>
+        <v>1.058316901167422</v>
       </c>
       <c r="K10">
-        <v>1.009754769668204</v>
+        <v>1.055280523216043</v>
       </c>
       <c r="L10">
-        <v>1.015541394304493</v>
+        <v>1.061366530480681</v>
       </c>
       <c r="M10">
-        <v>1.020676231548614</v>
+        <v>1.06973432570529</v>
       </c>
       <c r="N10">
-        <v>1.01488883723367</v>
+        <v>1.059819832557725</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9790267594468219</v>
+        <v>1.051129076909486</v>
       </c>
       <c r="D11">
-        <v>0.9905420738095866</v>
+        <v>1.051034102934246</v>
       </c>
       <c r="E11">
-        <v>0.9964514035641256</v>
+        <v>1.057139653778298</v>
       </c>
       <c r="F11">
-        <v>1.001383151414559</v>
+        <v>1.065477730933281</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038636720335924</v>
+        <v>1.040433076463136</v>
       </c>
       <c r="J11">
-        <v>1.009298849243382</v>
+        <v>1.057583600823438</v>
       </c>
       <c r="K11">
-        <v>1.005644584394162</v>
+        <v>1.054546352957779</v>
       </c>
       <c r="L11">
-        <v>1.01144055293888</v>
+        <v>1.060630118485963</v>
       </c>
       <c r="M11">
-        <v>1.016279030580317</v>
+        <v>1.068938888723061</v>
       </c>
       <c r="N11">
-        <v>1.010732169377504</v>
+        <v>1.059085490843142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9769134811339205</v>
+        <v>1.050770433026072</v>
       </c>
       <c r="D12">
-        <v>0.9887434876822028</v>
+        <v>1.050715736766469</v>
       </c>
       <c r="E12">
-        <v>0.9946590442179408</v>
+        <v>1.056820773038274</v>
       </c>
       <c r="F12">
-        <v>0.9994787827414588</v>
+        <v>1.065137273514358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038050587715869</v>
+        <v>1.040356611389548</v>
       </c>
       <c r="J12">
-        <v>1.007728092665537</v>
+        <v>1.057310920221841</v>
       </c>
       <c r="K12">
-        <v>1.0040895695815</v>
+        <v>1.05427338349185</v>
       </c>
       <c r="L12">
-        <v>1.009889288877457</v>
+        <v>1.060356329556492</v>
       </c>
       <c r="M12">
-        <v>1.014615975268479</v>
+        <v>1.068643187281996</v>
       </c>
       <c r="N12">
-        <v>1.00915918214515</v>
+        <v>1.058812423003814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9773685953100367</v>
+        <v>1.050847373880705</v>
       </c>
       <c r="D13">
-        <v>0.9891307482505682</v>
+        <v>1.050784035037446</v>
       </c>
       <c r="E13">
-        <v>0.9950449524854946</v>
+        <v>1.056889181065999</v>
       </c>
       <c r="F13">
-        <v>0.9998888040591586</v>
+        <v>1.06521030942089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038176908319774</v>
+        <v>1.040373029455839</v>
       </c>
       <c r="J13">
-        <v>1.00806637680721</v>
+        <v>1.057369424802161</v>
       </c>
       <c r="K13">
-        <v>1.004424446122554</v>
+        <v>1.054331948482277</v>
       </c>
       <c r="L13">
-        <v>1.010223347782025</v>
+        <v>1.060415069725575</v>
       </c>
       <c r="M13">
-        <v>1.014974093644329</v>
+        <v>1.068706627220978</v>
       </c>
       <c r="N13">
-        <v>1.009497946689106</v>
+        <v>1.058871010667348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9788528852942243</v>
+        <v>1.05109943602834</v>
       </c>
       <c r="D14">
-        <v>0.990394055110874</v>
+        <v>1.051007790127107</v>
       </c>
       <c r="E14">
-        <v>0.9963038921267209</v>
+        <v>1.057113298156742</v>
       </c>
       <c r="F14">
-        <v>1.001226420059541</v>
+        <v>1.06544959159943</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038588536381841</v>
+        <v>1.040426763068561</v>
       </c>
       <c r="J14">
-        <v>1.009169615512163</v>
+        <v>1.057561067113008</v>
       </c>
       <c r="K14">
-        <v>1.005516638011785</v>
+        <v>1.054523794670139</v>
       </c>
       <c r="L14">
-        <v>1.011312910733961</v>
+        <v>1.060607492191244</v>
       </c>
       <c r="M14">
-        <v>1.016142183448808</v>
+        <v>1.068914450890244</v>
       </c>
       <c r="N14">
-        <v>1.010602752119564</v>
+        <v>1.059062925132259</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9797621707614339</v>
+        <v>1.051254709138823</v>
       </c>
       <c r="D15">
-        <v>0.991168200054831</v>
+        <v>1.0511456307212</v>
       </c>
       <c r="E15">
-        <v>0.9970753943794648</v>
+        <v>1.057251363607961</v>
       </c>
       <c r="F15">
-        <v>1.002046146684957</v>
+        <v>1.065597001916215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038840433982303</v>
+        <v>1.040459823155011</v>
       </c>
       <c r="J15">
-        <v>1.009845443683037</v>
+        <v>1.057679104335381</v>
       </c>
       <c r="K15">
-        <v>1.006185749575506</v>
+        <v>1.054641962051287</v>
       </c>
       <c r="L15">
-        <v>1.011980440390541</v>
+        <v>1.060726016389341</v>
       </c>
       <c r="M15">
-        <v>1.016857864920373</v>
+        <v>1.069042465859203</v>
       </c>
       <c r="N15">
-        <v>1.011279540043958</v>
+        <v>1.059181129981027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9849773103826327</v>
+        <v>1.052158002286356</v>
       </c>
       <c r="D16">
-        <v>0.9956116807464884</v>
+        <v>1.0519475860565</v>
       </c>
       <c r="E16">
-        <v>1.001504201904458</v>
+        <v>1.058054655381035</v>
       </c>
       <c r="F16">
-        <v>1.006751942435619</v>
+        <v>1.066454702754769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040281041507764</v>
+        <v>1.040651531262381</v>
       </c>
       <c r="J16">
-        <v>1.013721165981005</v>
+        <v>1.058365526072572</v>
       </c>
       <c r="K16">
-        <v>1.010023710061619</v>
+        <v>1.055329210652575</v>
       </c>
       <c r="L16">
-        <v>1.01580975246993</v>
+        <v>1.061415368544162</v>
       </c>
       <c r="M16">
-        <v>1.020964026532749</v>
+        <v>1.069787082761092</v>
       </c>
       <c r="N16">
-        <v>1.015160766312141</v>
+        <v>1.059868526515818</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.988183275991291</v>
+        <v>1.052724211704222</v>
       </c>
       <c r="D17">
-        <v>0.9983461529666443</v>
+        <v>1.052450339433227</v>
       </c>
       <c r="E17">
-        <v>1.004230067341944</v>
+        <v>1.058558271376235</v>
       </c>
       <c r="F17">
-        <v>1.009648432419333</v>
+        <v>1.066992464197499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041162941140864</v>
+        <v>1.040771155510771</v>
       </c>
       <c r="J17">
-        <v>1.016103251458587</v>
+        <v>1.058795570724989</v>
       </c>
       <c r="K17">
-        <v>1.01238324238512</v>
+        <v>1.055759834900216</v>
       </c>
       <c r="L17">
-        <v>1.018164332451235</v>
+        <v>1.061847335785163</v>
       </c>
       <c r="M17">
-        <v>1.023489378451524</v>
+        <v>1.070253737808083</v>
       </c>
       <c r="N17">
-        <v>1.01754623462433</v>
+        <v>1.060299181880969</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9900307352514844</v>
+        <v>1.053054329260945</v>
       </c>
       <c r="D18">
-        <v>0.9999228984596805</v>
+        <v>1.052743483447638</v>
       </c>
       <c r="E18">
-        <v>1.005801997942389</v>
+        <v>1.058851927275089</v>
       </c>
       <c r="F18">
-        <v>1.011318810760478</v>
+        <v>1.067306042472662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041669778508532</v>
+        <v>1.040840704088715</v>
       </c>
       <c r="J18">
-        <v>1.017475732929064</v>
+        <v>1.059046219257867</v>
       </c>
       <c r="K18">
-        <v>1.013742962909346</v>
+        <v>1.056010843419622</v>
       </c>
       <c r="L18">
-        <v>1.019521327287879</v>
+        <v>1.062099136096338</v>
       </c>
       <c r="M18">
-        <v>1.024944985710643</v>
+        <v>1.070525778839497</v>
       </c>
       <c r="N18">
-        <v>1.018920665175922</v>
+        <v>1.060550186363511</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9906569428880883</v>
+        <v>1.053166866802268</v>
       </c>
       <c r="D19">
-        <v>1.000457509172829</v>
+        <v>1.052843420581833</v>
       </c>
       <c r="E19">
-        <v>1.006335000831595</v>
+        <v>1.058952040427594</v>
       </c>
       <c r="F19">
-        <v>1.011885204087556</v>
+        <v>1.06741294965509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041841340032319</v>
+        <v>1.040864380034397</v>
       </c>
       <c r="J19">
-        <v>1.017940904706085</v>
+        <v>1.05913165198306</v>
       </c>
       <c r="K19">
-        <v>1.014203849028577</v>
+        <v>1.056096402605091</v>
       </c>
       <c r="L19">
-        <v>1.019981310993177</v>
+        <v>1.062184966693228</v>
       </c>
       <c r="M19">
-        <v>1.025438428841202</v>
+        <v>1.070618512349268</v>
       </c>
       <c r="N19">
-        <v>1.019386497550222</v>
+        <v>1.060635740412975</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9878416585100458</v>
+        <v>1.052663477615082</v>
       </c>
       <c r="D20">
-        <v>0.9980546726550669</v>
+        <v>1.052396409500658</v>
       </c>
       <c r="E20">
-        <v>1.003939489006596</v>
+        <v>1.058504247988918</v>
       </c>
       <c r="F20">
-        <v>1.009339659946574</v>
+        <v>1.066934776717762</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041069109698677</v>
+        <v>1.040758344372157</v>
       </c>
       <c r="J20">
-        <v>1.015849445162248</v>
+        <v>1.058749450613771</v>
       </c>
       <c r="K20">
-        <v>1.012131814764661</v>
+        <v>1.055713650335929</v>
       </c>
       <c r="L20">
-        <v>1.017913419158294</v>
+        <v>1.061801006256316</v>
       </c>
       <c r="M20">
-        <v>1.023220246941704</v>
+        <v>1.070203685789884</v>
       </c>
       <c r="N20">
-        <v>1.017292067893938</v>
+        <v>1.060252996273902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.97841689586138</v>
+        <v>1.051025216416009</v>
       </c>
       <c r="D21">
-        <v>0.9900229269474126</v>
+        <v>1.050941904485716</v>
       </c>
       <c r="E21">
-        <v>0.9959340399165375</v>
+        <v>1.057047305536529</v>
       </c>
       <c r="F21">
-        <v>1.000833452175229</v>
+        <v>1.065379132999012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038467682268462</v>
+        <v>1.040410949645928</v>
       </c>
       <c r="J21">
-        <v>1.008845559106616</v>
+        <v>1.057504641556511</v>
       </c>
       <c r="K21">
-        <v>1.005195815837842</v>
+        <v>1.054467308130228</v>
       </c>
       <c r="L21">
-        <v>1.010992854780146</v>
+        <v>1.060550835586548</v>
       </c>
       <c r="M21">
-        <v>1.015799051735223</v>
+        <v>1.068853258686112</v>
       </c>
       <c r="N21">
-        <v>1.010278235516751</v>
+        <v>1.059006419444999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9722652544769599</v>
+        <v>1.049993841888705</v>
       </c>
       <c r="D22">
-        <v>0.9847908549014278</v>
+        <v>1.050026430038811</v>
       </c>
       <c r="E22">
-        <v>0.9907205759603482</v>
+        <v>1.056130377814876</v>
       </c>
       <c r="F22">
-        <v>0.9952943242330734</v>
+        <v>1.064400198583066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03675768094518</v>
+        <v>1.040190479480823</v>
       </c>
       <c r="J22">
-        <v>1.004272932442931</v>
+        <v>1.056720241304336</v>
       </c>
       <c r="K22">
-        <v>1.000669751289438</v>
+        <v>1.053682142207046</v>
       </c>
       <c r="L22">
-        <v>1.006478128947618</v>
+        <v>1.059763339056088</v>
       </c>
       <c r="M22">
-        <v>1.010959581431883</v>
+        <v>1.068002796222028</v>
       </c>
       <c r="N22">
-        <v>1.005699115198716</v>
+        <v>1.058220905254494</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9755489719084556</v>
+        <v>1.050540721889181</v>
       </c>
       <c r="D23">
-        <v>0.987582684671687</v>
+        <v>1.050511834041703</v>
       </c>
       <c r="E23">
-        <v>0.9935023327012416</v>
+        <v>1.056616544688155</v>
       </c>
       <c r="F23">
-        <v>0.9982498062152775</v>
+        <v>1.064919231696583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037671562824956</v>
+        <v>1.040307549686804</v>
       </c>
       <c r="J23">
-        <v>1.00671383995079</v>
+        <v>1.057136233274169</v>
       </c>
       <c r="K23">
-        <v>1.003085590346359</v>
+        <v>1.054098521239137</v>
       </c>
       <c r="L23">
-        <v>1.008887793392566</v>
+        <v>1.060180946316111</v>
       </c>
       <c r="M23">
-        <v>1.013542397239158</v>
+        <v>1.068453776446177</v>
       </c>
       <c r="N23">
-        <v>1.008143489075211</v>
+        <v>1.058637487980639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9879960901161017</v>
+        <v>1.052690921177331</v>
       </c>
       <c r="D24">
-        <v>0.9981864361954182</v>
+        <v>1.052420778436041</v>
       </c>
       <c r="E24">
-        <v>1.004070844350658</v>
+        <v>1.058528659125499</v>
       </c>
       <c r="F24">
-        <v>1.009479239747285</v>
+        <v>1.066960843481731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041111531384278</v>
+        <v>1.040764133873386</v>
       </c>
       <c r="J24">
-        <v>1.015964181507421</v>
+        <v>1.058770290891851</v>
       </c>
       <c r="K24">
-        <v>1.012245475074735</v>
+        <v>1.055734519669852</v>
       </c>
       <c r="L24">
-        <v>1.018026846564161</v>
+        <v>1.061821941067389</v>
       </c>
       <c r="M24">
-        <v>1.023341909442835</v>
+        <v>1.070226302609247</v>
       </c>
       <c r="N24">
-        <v>1.017406967177882</v>
+        <v>1.060273866147567</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001565019536467</v>
+        <v>1.055180529548909</v>
       </c>
       <c r="D25">
-        <v>1.009783168211517</v>
+        <v>1.05463195956675</v>
       </c>
       <c r="E25">
-        <v>1.015634659100915</v>
+        <v>1.060743861236948</v>
       </c>
       <c r="F25">
-        <v>1.021768279045523</v>
+        <v>1.069326553372685</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044809184934072</v>
+        <v>1.041285105785789</v>
       </c>
       <c r="J25">
-        <v>1.026039829076856</v>
+        <v>1.060659117768729</v>
       </c>
       <c r="K25">
-        <v>1.022231487952987</v>
+        <v>1.057626458155933</v>
       </c>
       <c r="L25">
-        <v>1.027995020224087</v>
+        <v>1.063720008637847</v>
       </c>
       <c r="M25">
-        <v>1.034037813943059</v>
+        <v>1.072277316353351</v>
       </c>
       <c r="N25">
-        <v>1.027496923322559</v>
+        <v>1.062165375375262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057161987598992</v>
+        <v>1.011783114606492</v>
       </c>
       <c r="D2">
-        <v>1.056392523886304</v>
+        <v>1.018541181284544</v>
       </c>
       <c r="E2">
-        <v>1.062507905838677</v>
+        <v>1.024371888599898</v>
       </c>
       <c r="F2">
-        <v>1.071210844270271</v>
+        <v>1.031055316297284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041693537971972</v>
+        <v>1.047548944489465</v>
       </c>
       <c r="J2">
-        <v>1.062159849014679</v>
+        <v>1.033617017170444</v>
       </c>
       <c r="K2">
-        <v>1.059130360032595</v>
+        <v>1.029748112728803</v>
       </c>
       <c r="L2">
-        <v>1.065229063986186</v>
+        <v>1.03550181336032</v>
       </c>
       <c r="M2">
-        <v>1.073908622668651</v>
+        <v>1.042098312854075</v>
       </c>
       <c r="N2">
-        <v>1.063668237831717</v>
+        <v>1.035084871892377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058598364849935</v>
+        <v>1.018894276364149</v>
       </c>
       <c r="D3">
-        <v>1.057669166988266</v>
+        <v>1.024648736338164</v>
       </c>
       <c r="E3">
-        <v>1.06378723294479</v>
+        <v>1.030467135913705</v>
       </c>
       <c r="F3">
-        <v>1.072577604668824</v>
+        <v>1.037535284521327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041986010619345</v>
+        <v>1.049428453175604</v>
       </c>
       <c r="J3">
-        <v>1.063246244069036</v>
+        <v>1.038882789227099</v>
       </c>
       <c r="K3">
-        <v>1.060219454692441</v>
+        <v>1.034975654390566</v>
       </c>
       <c r="L3">
-        <v>1.066322053157196</v>
+        <v>1.040724478073473</v>
       </c>
       <c r="M3">
-        <v>1.075090533866597</v>
+        <v>1.047709405164664</v>
       </c>
       <c r="N3">
-        <v>1.064756175691663</v>
+        <v>1.040358121949323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059526756863014</v>
+        <v>1.023365335530499</v>
       </c>
       <c r="D4">
-        <v>1.058494493375757</v>
+        <v>1.028494010068962</v>
       </c>
       <c r="E4">
-        <v>1.064614368254703</v>
+        <v>1.034305624224536</v>
       </c>
       <c r="F4">
-        <v>1.073461374708506</v>
+        <v>1.041616619579466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042173378908237</v>
+        <v>1.050597185052104</v>
       </c>
       <c r="J4">
-        <v>1.063947731201102</v>
+        <v>1.042189666712197</v>
       </c>
       <c r="K4">
-        <v>1.060922871893605</v>
+        <v>1.038260283048666</v>
       </c>
       <c r="L4">
-        <v>1.067028060664277</v>
+        <v>1.044006916919181</v>
       </c>
       <c r="M4">
-        <v>1.075854154256516</v>
+        <v>1.051237431806359</v>
       </c>
       <c r="N4">
-        <v>1.065458659015918</v>
+        <v>1.043669695579754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059916809505704</v>
+        <v>1.025215418418071</v>
       </c>
       <c r="D5">
-        <v>1.058841286002138</v>
+        <v>1.030086323895175</v>
       </c>
       <c r="E5">
-        <v>1.064961938567528</v>
+        <v>1.035895353076401</v>
       </c>
       <c r="F5">
-        <v>1.073832768824097</v>
+        <v>1.043307065223909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042251699454659</v>
+        <v>1.051077620066208</v>
       </c>
       <c r="J5">
-        <v>1.064242285330271</v>
+        <v>1.043557019426955</v>
       </c>
       <c r="K5">
-        <v>1.061218281197161</v>
+        <v>1.039618855492067</v>
       </c>
       <c r="L5">
-        <v>1.067324575712942</v>
+        <v>1.045364789295375</v>
       </c>
       <c r="M5">
-        <v>1.076174907801562</v>
+        <v>1.052697246950229</v>
       </c>
       <c r="N5">
-        <v>1.065753631445736</v>
+        <v>1.045038990092204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059982286953653</v>
+        <v>1.025524368277277</v>
       </c>
       <c r="D6">
-        <v>1.058899503895692</v>
+        <v>1.030352295224923</v>
       </c>
       <c r="E6">
-        <v>1.065020288045626</v>
+        <v>1.036160905673984</v>
       </c>
       <c r="F6">
-        <v>1.073895119286382</v>
+        <v>1.043589450215972</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042264823520805</v>
+        <v>1.051157660658391</v>
       </c>
       <c r="J6">
-        <v>1.064291721794112</v>
+        <v>1.043785296262491</v>
       </c>
       <c r="K6">
-        <v>1.061267863812665</v>
+        <v>1.039845691066885</v>
       </c>
       <c r="L6">
-        <v>1.067374344970523</v>
+        <v>1.045591519965449</v>
       </c>
       <c r="M6">
-        <v>1.07622874787398</v>
+        <v>1.052941019950758</v>
       </c>
       <c r="N6">
-        <v>1.065803138115027</v>
+        <v>1.045267591107031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059531969714751</v>
+        <v>1.023390170451795</v>
       </c>
       <c r="D7">
-        <v>1.05849912791653</v>
+        <v>1.028515380229313</v>
       </c>
       <c r="E7">
-        <v>1.064619013119399</v>
+        <v>1.034326958810957</v>
       </c>
       <c r="F7">
-        <v>1.073466337850416</v>
+        <v>1.041639305250471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042174427194255</v>
+        <v>1.0506036468995</v>
       </c>
       <c r="J7">
-        <v>1.063951668422277</v>
+        <v>1.042208025665977</v>
       </c>
       <c r="K7">
-        <v>1.060926820369779</v>
+        <v>1.038278522456571</v>
       </c>
       <c r="L7">
-        <v>1.067032023849595</v>
+        <v>1.044025146119617</v>
       </c>
       <c r="M7">
-        <v>1.075858441246632</v>
+        <v>1.051257028194031</v>
       </c>
       <c r="N7">
-        <v>1.065462601828398</v>
+        <v>1.043688080605354</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057647636784341</v>
+        <v>1.01421438990203</v>
       </c>
       <c r="D8">
-        <v>1.05682412865642</v>
+        <v>1.020628177658753</v>
       </c>
       <c r="E8">
-        <v>1.06294040269195</v>
+        <v>1.026454472303626</v>
       </c>
       <c r="F8">
-        <v>1.07167287747068</v>
+        <v>1.033269231831684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041792770715594</v>
+        <v>1.048194241526515</v>
       </c>
       <c r="J8">
-        <v>1.062527310811198</v>
+        <v>1.035418147051536</v>
       </c>
       <c r="K8">
-        <v>1.059498696173913</v>
+        <v>1.031535792850296</v>
       </c>
       <c r="L8">
-        <v>1.065598701710992</v>
+        <v>1.037287638515332</v>
       </c>
       <c r="M8">
-        <v>1.074308296746975</v>
+        <v>1.044016646297744</v>
       </c>
       <c r="N8">
-        <v>1.064036221466135</v>
+        <v>1.036888559584471</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054318981818133</v>
+        <v>0.9969654203881197</v>
       </c>
       <c r="D9">
-        <v>1.053866652656911</v>
+        <v>1.005847810470627</v>
       </c>
       <c r="E9">
-        <v>1.059977119287495</v>
+        <v>1.011709797338826</v>
       </c>
       <c r="F9">
-        <v>1.068507656023554</v>
+        <v>1.017596988471064</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041105780062409</v>
+        <v>1.043562694130614</v>
       </c>
       <c r="J9">
-        <v>1.060005871986236</v>
+        <v>1.022625794457703</v>
       </c>
       <c r="K9">
-        <v>1.056972027866646</v>
+        <v>1.018846718207484</v>
       </c>
       <c r="L9">
-        <v>1.063063414539128</v>
+        <v>1.024615705729225</v>
       </c>
       <c r="M9">
-        <v>1.071567712911009</v>
+        <v>1.03041087555273</v>
       </c>
       <c r="N9">
-        <v>1.061511201908829</v>
+        <v>1.024078040382651</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052093995687927</v>
+        <v>0.9846118848659854</v>
       </c>
       <c r="D10">
-        <v>1.051890755955904</v>
+        <v>0.995300136046342</v>
       </c>
       <c r="E10">
-        <v>1.057997728979847</v>
+        <v>1.001193658334121</v>
       </c>
       <c r="F10">
-        <v>1.066393918381038</v>
+        <v>1.006421967647112</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040637981923954</v>
+        <v>1.0401803356179</v>
       </c>
       <c r="J10">
-        <v>1.058316901167422</v>
+        <v>1.013449622525388</v>
       </c>
       <c r="K10">
-        <v>1.055280523216043</v>
+        <v>1.009754769668205</v>
       </c>
       <c r="L10">
-        <v>1.061366530480681</v>
+        <v>1.015541394304494</v>
       </c>
       <c r="M10">
-        <v>1.06973432570529</v>
+        <v>1.020676231548614</v>
       </c>
       <c r="N10">
-        <v>1.059819832557725</v>
+        <v>1.014888837233671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051129076909486</v>
+        <v>0.979026759446822</v>
       </c>
       <c r="D11">
-        <v>1.051034102934246</v>
+        <v>0.9905420738095866</v>
       </c>
       <c r="E11">
-        <v>1.057139653778298</v>
+        <v>0.996451403564126</v>
       </c>
       <c r="F11">
-        <v>1.065477730933281</v>
+        <v>1.00138315141456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040433076463136</v>
+        <v>1.038636720335924</v>
       </c>
       <c r="J11">
-        <v>1.057583600823438</v>
+        <v>1.009298849243382</v>
       </c>
       <c r="K11">
-        <v>1.054546352957779</v>
+        <v>1.005644584394162</v>
       </c>
       <c r="L11">
-        <v>1.060630118485963</v>
+        <v>1.01144055293888</v>
       </c>
       <c r="M11">
-        <v>1.068938888723061</v>
+        <v>1.016279030580317</v>
       </c>
       <c r="N11">
-        <v>1.059085490843142</v>
+        <v>1.010732169377504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050770433026072</v>
+        <v>0.976913481133918</v>
       </c>
       <c r="D12">
-        <v>1.050715736766469</v>
+        <v>0.9887434876822002</v>
       </c>
       <c r="E12">
-        <v>1.056820773038274</v>
+        <v>0.9946590442179384</v>
       </c>
       <c r="F12">
-        <v>1.065137273514358</v>
+        <v>0.9994787827414564</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040356611389548</v>
+        <v>1.038050587715868</v>
       </c>
       <c r="J12">
-        <v>1.057310920221841</v>
+        <v>1.007728092665535</v>
       </c>
       <c r="K12">
-        <v>1.05427338349185</v>
+        <v>1.004089569581498</v>
       </c>
       <c r="L12">
-        <v>1.060356329556492</v>
+        <v>1.009889288877454</v>
       </c>
       <c r="M12">
-        <v>1.068643187281996</v>
+        <v>1.014615975268476</v>
       </c>
       <c r="N12">
-        <v>1.058812423003814</v>
+        <v>1.009159182145148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050847373880705</v>
+        <v>0.9773685953100369</v>
       </c>
       <c r="D13">
-        <v>1.050784035037446</v>
+        <v>0.9891307482505686</v>
       </c>
       <c r="E13">
-        <v>1.056889181065999</v>
+        <v>0.9950449524854945</v>
       </c>
       <c r="F13">
-        <v>1.06521030942089</v>
+        <v>0.999888804059159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040373029455839</v>
+        <v>1.038176908319774</v>
       </c>
       <c r="J13">
-        <v>1.057369424802161</v>
+        <v>1.00806637680721</v>
       </c>
       <c r="K13">
-        <v>1.054331948482277</v>
+        <v>1.004424446122554</v>
       </c>
       <c r="L13">
-        <v>1.060415069725575</v>
+        <v>1.010223347782025</v>
       </c>
       <c r="M13">
-        <v>1.068706627220978</v>
+        <v>1.014974093644329</v>
       </c>
       <c r="N13">
-        <v>1.058871010667348</v>
+        <v>1.009497946689106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05109943602834</v>
+        <v>0.9788528852942244</v>
       </c>
       <c r="D14">
-        <v>1.051007790127107</v>
+        <v>0.9903940551108741</v>
       </c>
       <c r="E14">
-        <v>1.057113298156742</v>
+        <v>0.9963038921267209</v>
       </c>
       <c r="F14">
-        <v>1.06544959159943</v>
+        <v>1.001226420059541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040426763068561</v>
+        <v>1.038588536381841</v>
       </c>
       <c r="J14">
-        <v>1.057561067113008</v>
+        <v>1.009169615512163</v>
       </c>
       <c r="K14">
-        <v>1.054523794670139</v>
+        <v>1.005516638011785</v>
       </c>
       <c r="L14">
-        <v>1.060607492191244</v>
+        <v>1.011312910733961</v>
       </c>
       <c r="M14">
-        <v>1.068914450890244</v>
+        <v>1.016142183448808</v>
       </c>
       <c r="N14">
-        <v>1.059062925132259</v>
+        <v>1.010602752119564</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051254709138823</v>
+        <v>0.9797621707614349</v>
       </c>
       <c r="D15">
-        <v>1.0511456307212</v>
+        <v>0.991168200054832</v>
       </c>
       <c r="E15">
-        <v>1.057251363607961</v>
+        <v>0.9970753943794654</v>
       </c>
       <c r="F15">
-        <v>1.065597001916215</v>
+        <v>1.002046146684957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040459823155011</v>
+        <v>1.038840433982304</v>
       </c>
       <c r="J15">
-        <v>1.057679104335381</v>
+        <v>1.009845443683038</v>
       </c>
       <c r="K15">
-        <v>1.054641962051287</v>
+        <v>1.006185749575507</v>
       </c>
       <c r="L15">
-        <v>1.060726016389341</v>
+        <v>1.011980440390542</v>
       </c>
       <c r="M15">
-        <v>1.069042465859203</v>
+        <v>1.016857864920373</v>
       </c>
       <c r="N15">
-        <v>1.059181129981027</v>
+        <v>1.011279540043959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052158002286356</v>
+        <v>0.9849773103826337</v>
       </c>
       <c r="D16">
-        <v>1.0519475860565</v>
+        <v>0.9956116807464892</v>
       </c>
       <c r="E16">
-        <v>1.058054655381035</v>
+        <v>1.001504201904459</v>
       </c>
       <c r="F16">
-        <v>1.066454702754769</v>
+        <v>1.006751942435619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040651531262381</v>
+        <v>1.040281041507764</v>
       </c>
       <c r="J16">
-        <v>1.058365526072572</v>
+        <v>1.013721165981006</v>
       </c>
       <c r="K16">
-        <v>1.055329210652575</v>
+        <v>1.010023710061621</v>
       </c>
       <c r="L16">
-        <v>1.061415368544162</v>
+        <v>1.015809752469931</v>
       </c>
       <c r="M16">
-        <v>1.069787082761092</v>
+        <v>1.020964026532749</v>
       </c>
       <c r="N16">
-        <v>1.059868526515818</v>
+        <v>1.015160766312142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052724211704222</v>
+        <v>0.9881832759912917</v>
       </c>
       <c r="D17">
-        <v>1.052450339433227</v>
+        <v>0.998346152966645</v>
       </c>
       <c r="E17">
-        <v>1.058558271376235</v>
+        <v>1.004230067341945</v>
       </c>
       <c r="F17">
-        <v>1.066992464197499</v>
+        <v>1.009648432419334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040771155510771</v>
+        <v>1.041162941140864</v>
       </c>
       <c r="J17">
-        <v>1.058795570724989</v>
+        <v>1.016103251458588</v>
       </c>
       <c r="K17">
-        <v>1.055759834900216</v>
+        <v>1.01238324238512</v>
       </c>
       <c r="L17">
-        <v>1.061847335785163</v>
+        <v>1.018164332451236</v>
       </c>
       <c r="M17">
-        <v>1.070253737808083</v>
+        <v>1.023489378451525</v>
       </c>
       <c r="N17">
-        <v>1.060299181880969</v>
+        <v>1.017546234624331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053054329260945</v>
+        <v>0.9900307352514842</v>
       </c>
       <c r="D18">
-        <v>1.052743483447638</v>
+        <v>0.9999228984596807</v>
       </c>
       <c r="E18">
-        <v>1.058851927275089</v>
+        <v>1.005801997942388</v>
       </c>
       <c r="F18">
-        <v>1.067306042472662</v>
+        <v>1.011318810760478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040840704088715</v>
+        <v>1.041669778508532</v>
       </c>
       <c r="J18">
-        <v>1.059046219257867</v>
+        <v>1.017475732929064</v>
       </c>
       <c r="K18">
-        <v>1.056010843419622</v>
+        <v>1.013742962909346</v>
       </c>
       <c r="L18">
-        <v>1.062099136096338</v>
+        <v>1.019521327287879</v>
       </c>
       <c r="M18">
-        <v>1.070525778839497</v>
+        <v>1.024944985710643</v>
       </c>
       <c r="N18">
-        <v>1.060550186363511</v>
+        <v>1.018920665175921</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053166866802268</v>
+        <v>0.9906569428880877</v>
       </c>
       <c r="D19">
-        <v>1.052843420581833</v>
+        <v>1.000457509172829</v>
       </c>
       <c r="E19">
-        <v>1.058952040427594</v>
+        <v>1.006335000831594</v>
       </c>
       <c r="F19">
-        <v>1.06741294965509</v>
+        <v>1.011885204087555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040864380034397</v>
+        <v>1.041841340032319</v>
       </c>
       <c r="J19">
-        <v>1.05913165198306</v>
+        <v>1.017940904706085</v>
       </c>
       <c r="K19">
-        <v>1.056096402605091</v>
+        <v>1.014203849028577</v>
       </c>
       <c r="L19">
-        <v>1.062184966693228</v>
+        <v>1.019981310993177</v>
       </c>
       <c r="M19">
-        <v>1.070618512349268</v>
+        <v>1.025438428841202</v>
       </c>
       <c r="N19">
-        <v>1.060635740412975</v>
+        <v>1.019386497550221</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052663477615082</v>
+        <v>0.9878416585100467</v>
       </c>
       <c r="D20">
-        <v>1.052396409500658</v>
+        <v>0.9980546726550671</v>
       </c>
       <c r="E20">
-        <v>1.058504247988918</v>
+        <v>1.003939489006597</v>
       </c>
       <c r="F20">
-        <v>1.066934776717762</v>
+        <v>1.009339659946575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040758344372157</v>
+        <v>1.041069109698677</v>
       </c>
       <c r="J20">
-        <v>1.058749450613771</v>
+        <v>1.015849445162248</v>
       </c>
       <c r="K20">
-        <v>1.055713650335929</v>
+        <v>1.012131814764661</v>
       </c>
       <c r="L20">
-        <v>1.061801006256316</v>
+        <v>1.017913419158294</v>
       </c>
       <c r="M20">
-        <v>1.070203685789884</v>
+        <v>1.023220246941705</v>
       </c>
       <c r="N20">
-        <v>1.060252996273902</v>
+        <v>1.017292067893939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051025216416009</v>
+        <v>0.9784168958613809</v>
       </c>
       <c r="D21">
-        <v>1.050941904485716</v>
+        <v>0.9900229269474133</v>
       </c>
       <c r="E21">
-        <v>1.057047305536529</v>
+        <v>0.9959340399165384</v>
       </c>
       <c r="F21">
-        <v>1.065379132999012</v>
+        <v>1.00083345217523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040410949645928</v>
+        <v>1.038467682268462</v>
       </c>
       <c r="J21">
-        <v>1.057504641556511</v>
+        <v>1.008845559106617</v>
       </c>
       <c r="K21">
-        <v>1.054467308130228</v>
+        <v>1.005195815837843</v>
       </c>
       <c r="L21">
-        <v>1.060550835586548</v>
+        <v>1.010992854780147</v>
       </c>
       <c r="M21">
-        <v>1.068853258686112</v>
+        <v>1.015799051735225</v>
       </c>
       <c r="N21">
-        <v>1.059006419444999</v>
+        <v>1.010278235516751</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049993841888705</v>
+        <v>0.9722652544769596</v>
       </c>
       <c r="D22">
-        <v>1.050026430038811</v>
+        <v>0.9847908549014277</v>
       </c>
       <c r="E22">
-        <v>1.056130377814876</v>
+        <v>0.9907205759603479</v>
       </c>
       <c r="F22">
-        <v>1.064400198583066</v>
+        <v>0.995294324233073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040190479480823</v>
+        <v>1.03675768094518</v>
       </c>
       <c r="J22">
-        <v>1.056720241304336</v>
+        <v>1.004272932442931</v>
       </c>
       <c r="K22">
-        <v>1.053682142207046</v>
+        <v>1.000669751289438</v>
       </c>
       <c r="L22">
-        <v>1.059763339056088</v>
+        <v>1.006478128947618</v>
       </c>
       <c r="M22">
-        <v>1.068002796222028</v>
+        <v>1.010959581431883</v>
       </c>
       <c r="N22">
-        <v>1.058220905254494</v>
+        <v>1.005699115198715</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050540721889181</v>
+        <v>0.9755489719084556</v>
       </c>
       <c r="D23">
-        <v>1.050511834041703</v>
+        <v>0.9875826846716872</v>
       </c>
       <c r="E23">
-        <v>1.056616544688155</v>
+        <v>0.9935023327012419</v>
       </c>
       <c r="F23">
-        <v>1.064919231696583</v>
+        <v>0.9982498062152781</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040307549686804</v>
+        <v>1.037671562824956</v>
       </c>
       <c r="J23">
-        <v>1.057136233274169</v>
+        <v>1.00671383995079</v>
       </c>
       <c r="K23">
-        <v>1.054098521239137</v>
+        <v>1.003085590346359</v>
       </c>
       <c r="L23">
-        <v>1.060180946316111</v>
+        <v>1.008887793392566</v>
       </c>
       <c r="M23">
-        <v>1.068453776446177</v>
+        <v>1.013542397239158</v>
       </c>
       <c r="N23">
-        <v>1.058637487980639</v>
+        <v>1.008143489075211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052690921177331</v>
+        <v>0.9879960901161019</v>
       </c>
       <c r="D24">
-        <v>1.052420778436041</v>
+        <v>0.9981864361954189</v>
       </c>
       <c r="E24">
-        <v>1.058528659125499</v>
+        <v>1.004070844350658</v>
       </c>
       <c r="F24">
-        <v>1.066960843481731</v>
+        <v>1.009479239747285</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040764133873386</v>
+        <v>1.041111531384278</v>
       </c>
       <c r="J24">
-        <v>1.058770290891851</v>
+        <v>1.015964181507422</v>
       </c>
       <c r="K24">
-        <v>1.055734519669852</v>
+        <v>1.012245475074735</v>
       </c>
       <c r="L24">
-        <v>1.061821941067389</v>
+        <v>1.018026846564161</v>
       </c>
       <c r="M24">
-        <v>1.070226302609247</v>
+        <v>1.023341909442835</v>
       </c>
       <c r="N24">
-        <v>1.060273866147567</v>
+        <v>1.017406967177883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055180529548909</v>
+        <v>1.001565019536466</v>
       </c>
       <c r="D25">
-        <v>1.05463195956675</v>
+        <v>1.009783168211516</v>
       </c>
       <c r="E25">
-        <v>1.060743861236948</v>
+        <v>1.015634659100915</v>
       </c>
       <c r="F25">
-        <v>1.069326553372685</v>
+        <v>1.021768279045523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041285105785789</v>
+        <v>1.044809184934071</v>
       </c>
       <c r="J25">
-        <v>1.060659117768729</v>
+        <v>1.026039829076856</v>
       </c>
       <c r="K25">
-        <v>1.057626458155933</v>
+        <v>1.022231487952987</v>
       </c>
       <c r="L25">
-        <v>1.063720008637847</v>
+        <v>1.027995020224086</v>
       </c>
       <c r="M25">
-        <v>1.072277316353351</v>
+        <v>1.034037813943059</v>
       </c>
       <c r="N25">
-        <v>1.062165375375262</v>
+        <v>1.027496923322559</v>
       </c>
     </row>
   </sheetData>
